--- a/DOM_Banner/output/dept_banner/Rajesh Janardhanan_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Rajesh Janardhanan_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,345 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Michael R. Kendall, Martin Chacon, Rajesh Janardhanan</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4317939425</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Incidental Quadricuspid Aortic Valve Demonstrated by Transillumination on Three-Dimensional Transesophageal Echocardiography</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5023316779", "https://openalex.org/A5000005237", "https://openalex.org/A5053259879"), au_display_name = c("Michael R. Kendall", "Martin Chacon", "Rajesh Janardhanan"), au_orcid = c("https://orcid.org/0000-0003-2865-5896", NA, NA), author_position = c("first", "middle", "last"), au_affiliation_raw = c("", "", ""), institution_id = c(NA, NA, NA), institution_display_name = c(NA, NA, NA), institution_ror = c(NA, NA, NA), institution_country_code = c(NA, NA, NA), 
-    institution_type = c(NA, NA, NA), institution_lineage = c(NA, NA, NA))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>•QAV is a rare congenital malformation often missed on TTE.•Intervention is typically required in the fifth to sixth decade of life.•Transillumination on 3D TEE offers photorealistic 3D rendering. Quadricuspid aortic valve (QAV) is a rare congenital malformation that is diagnosed later in life following the development of significant valvular disease, predominantly aortic regurgitation. We present a case of incidental QAV not well visualized on transthoracic echocardiogram (TTE) but clearly characterized utilizing the novel transillumination mode on three-dimensional (3D) transesophageal echocardiogram (TEE). A 57-year-old patient was admitted with clinical features concerning for endocarditis. Their medical history was significant for a murmur, intravenous drug use, and recent methicillin-resistant staphylococcus aureus osteomyelitis of the left small finger status postantibiotics and amputation 3 months prior. On admission the patient was afebrile (36.5 °C), with blood pressure of 136/70 mm Hg, pulse rate 87 beats/minute, and oxygen saturation 96% on room air. Cardiac auscultation revealed 3/6 diastolic murmur in the apex. The remainder of the exam revealed multiple small fluctuant abscesses to the left forearm and popliteal fossa. Laboratory evaluation was notable for mildly elevated white blood cell count of 12,100/mL. Wound cultures from abscess purulence returned positive for methicillin-resistant staphylococcus aureus bacteria, while blood cultures were negative. The patient was started on vancomycin and piperacillin-tazobactam. The patient underwent a TTE that showed mild left ventricular (LV) dysfunction and severe primary valvular aortic regurgitation. The aortic leaflet morphology was not well visualized on TTE (Video 1); however, there was thickening of valve leaflets, with a noticeable transvalvular mean gradient of 9 mm Hg and maximum velocity of 2.2 m/sec. There was a central regurgitant jet and a vena contracta measuring 0.7 cm. Additionally, the LV end-diastolic diameter indexed to body surface area was severely dilated, measuring greater than 3.7 cm/m2, and the LV ejection fraction was 41%. Given high clinical suspicion for infective endocarditis, a 3D TEE was performed. The TEE confirmed severe central aortic regurgitation and ventricular dilatation (Figure 1, Videos 2 and 3). Transillumination on 3D TEE (Figure 2, Video 4) revealed a QAV with no evidence of vegetations. Antibiotic coverage was transitioned to daptomycin for the remainder of the hospitalization. The patient is being considered for elective aortic valve replacement for severe aortic valve regurgitation with associated LV dysfunction.Figure 2(A) Transillumination mode on 3D TEE demonstrating QAV open in systole. (Yellow arrows point to the 4 cusps.) (B) Transillumination mode on 3D TEE demonstrating QAV closed in diastole, with a fourth smaller accessory cusp positioned between the right and noncoronary cusps. (Yellow arrows point to the 4 cusps.)View Large Image Figure ViewerDownload Hi-res image Download (PPT) Quadricuspid aortic valve is a rare congenital malformation with an estimated incidence of &lt;0.05%.1Tsang M.Y. Abudiab M.M. Ammash N.M. Naqvi T.Z. Edwards W.D. Nkomo V.T. et al.Quadricuspid aortic valve: characteristics, associated structural cardiovascular abnormalities, and clinical outcomes.Circulation. 2016; 133: 312Crossref PubMed Scopus (66) Google Scholar Multiple variants have been described based on the combination of cusp size by Hurwitz and Roberts2Hurwitz L.E. Roberts W.C. Quadricuspid semilunar valve.Am J Cardiol. 1973; 31: 623-626Abstract Full Text PDF PubMed Scopus (293) Google Scholar and location of the accessory cusp by Nakamura et al.3Nakamura Y. Taniguchi I. Saiki M. Morimoto K. Yamaga T. Quadricuspid aortic valve associated with aortic stenosis and regurgitation.Jpn J Thorac Cardiovasc Surg. 2001; 49: 714-716Crossref PubMed Scopus (37) Google Scholar According to these 2 classification schemes, our patient has a Hurwitz type B and Nakamura type II morphology with 3 equal cusps and a fourth smaller accessory cusp positioned between the right and noncoronary cusps. Further examination of the imaging reveals partial fusion of the accessory cusp with both the non- and right coronary cusp, making the valve functionally bicuspid and potentially more prone to mixed stenosis and regurgitation disease. Clinical presentation varies depending on the QAV functional status and associated disorders. Unequal cusp sizes with abnormal coaptation result in unequal shear stress with subsequent regurgitation and are suspected to predispose to infective endocarditis.4Takeda N. Ohtaki E. Kasegawa H. Tobaru T. Sumiyoshi T. Infective endocarditis associated with quadricuspid aortic valve.Jpn Heart J. 2003; 44: 441-445Crossref PubMed Scopus (30) Google Scholar Symptoms of aortic regurgitation typically manifest in the fifth to sixth decade of life and can require intervention. One early meta-analysis of 114 cases included 46 cases (40%) that underwent surgical intervention. Although this group was likely weighted by advanced cases, the average age was 54 years old, with the youngest patient undergoing surgical repair for aortic regurgitation at only 5 years old.5Timperley J. Milner R. Marshall A.J. Gilbert T.J. Quadricuspid aortic valves.Clin Cardiol. 2002; 25: 548-552Crossref PubMed Scopus (95) Google Scholar Diagnosis of asymptomatic patients with QAV is important given the propensity for valvular disease to rapidly progress, in addition to recognizing associated congenital anomalies as well as a possible benefit of prophylaxis in preventing infective endocarditis for QAV with significant asymmetry. Diagnosis of QAV has historically been made postmortem or intraoperatively; however, with advancement in medical imaging, more cases are likely to be diagnosed incidentally in asymptomatic patients. In the largest QAV cohort (50 patients), 7 (14%) patients were diagnosed by TEE, and 1 (2%) patient intraoperatively, following negative TTE.1Tsang M.Y. Abudiab M.M. Ammash N.M. Naqvi T.Z. Edwards W.D. Nkomo V.T. et al.Quadricuspid aortic valve: characteristics, associated structural cardiovascular abnormalities, and clinical outcomes.Circulation. 2016; 133: 312Crossref PubMed Scopus (66) Google Scholar It is likely that QAV is missed with TTE, despite being the most common first-line imaging modality. Three-dimensional TEE can utilize multiplane imaging for an “en face” alignment of the aortic valve. Full-volume 3D imaging provides visual information of an entire region, allowing for easier interpretation and anatomic detail (e.g., free leaflet edge length vs fusion and distance between leaflet tips and coronary ostia).6Lang R.M. Badano L.P. Tsang W. Adams D.H. Agricola E. Buck T. et al.EAE/ASE recommendations for image acquisition and display using three-dimensional echocardiography.J Am Soc Echocardiogr. 2012; 25: 3-46Abstract Full Text Full Text PDF PubMed Scopus (516) Google Scholar Transillumination offers enhanced depth perception and border delineation, while color flow Doppler helps to localize the regurgitant jet origin.7Karagodin I. Addetia K. Singh A. Dow A. Rivera L. DeCara J.M. et al.Improved delineation of cardiac pathology using a novel three-dimensional echocardiographic tissue transparency tool.J Am Soc Echocardiogr. 2020; 33: 1316-1323Abstract Full Text Full Text PDF Scopus (19) Google Scholar Beyond the delineation of 4 leaflets in the parasternal short-axis view in patients with optimal windows, common clues on TTE include central aortic regurgitation and doming of the leaflets.</t>
+          <t>2023-03-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-03-01</t>
+          <t>CASE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CASE</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S2898176164</t>
+          <t>https://doi.org/10.1016/j.case.2022.11.006</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2468-6441</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>green</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37065839</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.case.2022.11.006</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>green</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.case.2022.11.006</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4317939425</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4317939425", doi = "https://doi.org/10.1016/j.case.2022.11.006", pmid = "https://pubmed.ncbi.nlm.nih.gov/37065839")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.case.2022.11.006</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1988977811", "https://openalex.org/W1994422709", "https://openalex.org/W2013287060", "https://openalex.org/W2044498807", "https://openalex.org/W2104469694", "https://openalex.org/W2189383805", "https://openalex.org/W3089244743")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W2049214470", "https://openalex.org/W2902148150", "https://openalex.org/W2738559067", "https://openalex.org/W2401852034", "https://openalex.org/W2140184279", "https://openalex.org/W2126870263", "https://openalex.org/W2082473166", "https://openalex.org/W2078970059", "https://openalex.org/W1902826408", "https://openalex.org/W1984923792")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Rajesh Janardhanan_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Rajesh Janardhanan_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t xml:space="preserve">; ; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4317939425</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Incidental Quadricuspid Aortic Valve Demonstrated by Transillumination on Three-Dimensional Transesophageal Echocardiography</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-03-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>CASE</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.case.2022.11.006</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>green</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37065839</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.case.2022.11.006</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
